--- a/biology/Histoire de la zoologie et de la botanique/Joseph_Reynolds_Green/Joseph_Reynolds_Green.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joseph_Reynolds_Green/Joseph_Reynolds_Green.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Reynolds Green (3 décembre 1848, Stowmarket - 3 juin 1914, Cambridge) est un botaniste, biochimiste et physiologiste anglais[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Reynolds Green (3 décembre 1848, Stowmarket - 3 juin 1914, Cambridge) est un botaniste, biochimiste et physiologiste anglais.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Joseph Reynolds Green, A history of Botany, 1860-1900 : Being a continuation of Sachs' History of botany, 1530-1860, Oxford, Clarendon Press, 1909, 543 p. (lire en ligne)
 (en) Joseph Reynolds Green, A history of Botany : in the United Kingdom from the earliest times to the end of the 19th century, Londres, J.M. Dent &amp; Sons Limited, 1914, 648 p. (lire en ligne)</t>
